--- a/Code/Results/Cases/Case_4_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.69876984718806</v>
+        <v>8.706829043602321</v>
       </c>
       <c r="C2">
-        <v>8.754756964130731</v>
+        <v>5.786482077707481</v>
       </c>
       <c r="D2">
-        <v>7.180571327019234</v>
+        <v>5.972618362059277</v>
       </c>
       <c r="E2">
-        <v>29.65390876008255</v>
+        <v>16.50508050714844</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.14488054647106</v>
+        <v>24.96442592711288</v>
       </c>
       <c r="H2">
-        <v>8.148714246357388</v>
+        <v>13.27028801887965</v>
       </c>
       <c r="I2">
-        <v>11.81846868332725</v>
+        <v>18.79813087760017</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.6462881583759</v>
+        <v>8.459906954226811</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.17656267270734</v>
+        <v>17.31343588228232</v>
       </c>
       <c r="O2">
-        <v>13.33077109398623</v>
+        <v>19.70215311645135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.83890139719287</v>
+        <v>8.35495519919469</v>
       </c>
       <c r="C3">
-        <v>8.265004915580123</v>
+        <v>5.551226904570221</v>
       </c>
       <c r="D3">
-        <v>6.686371319151204</v>
+        <v>5.851287856702156</v>
       </c>
       <c r="E3">
-        <v>27.52005420453636</v>
+        <v>15.56961735666164</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.48854104475808</v>
+        <v>24.94012192324781</v>
       </c>
       <c r="H3">
-        <v>8.166748590003376</v>
+        <v>13.31010655170421</v>
       </c>
       <c r="I3">
-        <v>11.91051729684466</v>
+        <v>18.87449877332737</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.93337855727585</v>
+        <v>8.176206086240951</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.36651436060428</v>
+        <v>17.36943826834594</v>
       </c>
       <c r="O3">
-        <v>13.21299367647736</v>
+        <v>19.7520826941456</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28122495675482</v>
+        <v>8.132324813206095</v>
       </c>
       <c r="C4">
-        <v>7.949723093546281</v>
+        <v>5.4004323931131</v>
       </c>
       <c r="D4">
-        <v>6.365690247987123</v>
+        <v>5.777242512512783</v>
       </c>
       <c r="E4">
-        <v>26.14523814471089</v>
+        <v>14.97024299731406</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.1029064440992</v>
+        <v>24.9343423236375</v>
       </c>
       <c r="H4">
-        <v>8.18378119186319</v>
+        <v>13.33681765142158</v>
       </c>
       <c r="I4">
-        <v>11.97764081423421</v>
+        <v>18.92519307239155</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.47349689193038</v>
+        <v>8.018053614467387</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.48554749763894</v>
+        <v>17.40541859906455</v>
       </c>
       <c r="O4">
-        <v>13.1535036304423</v>
+        <v>19.78740714480531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.04649659202907</v>
+        <v>8.040084310019422</v>
       </c>
       <c r="C5">
-        <v>7.817617265096656</v>
+        <v>5.337437643761288</v>
       </c>
       <c r="D5">
-        <v>6.230642960559026</v>
+        <v>5.747229564753606</v>
       </c>
       <c r="E5">
-        <v>25.56846666407373</v>
+        <v>14.71997686137593</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.95024529632008</v>
+        <v>24.93428411401652</v>
       </c>
       <c r="H5">
-        <v>8.192160573175723</v>
+        <v>13.34827098492219</v>
       </c>
       <c r="I5">
-        <v>12.00753100564174</v>
+        <v>18.94680641705234</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.2805768190268</v>
+        <v>7.952994473427749</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.53468261901138</v>
+        <v>17.4204831056166</v>
       </c>
       <c r="O5">
-        <v>13.13238190100817</v>
+        <v>19.80297234845015</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.00706917856286</v>
+        <v>8.024680565922436</v>
       </c>
       <c r="C6">
-        <v>7.795463602991465</v>
+        <v>5.326885752302799</v>
       </c>
       <c r="D6">
-        <v>6.210889294280957</v>
+        <v>5.742257067926505</v>
       </c>
       <c r="E6">
-        <v>25.47168853720062</v>
+        <v>14.67806591014319</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.92517042317092</v>
+        <v>24.9344130723452</v>
       </c>
       <c r="H6">
-        <v>8.193637112241909</v>
+        <v>13.35020711259264</v>
       </c>
       <c r="I6">
-        <v>12.01264378350803</v>
+        <v>18.95045293094222</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.24821153777281</v>
+        <v>7.942157605227822</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.54288008944076</v>
+        <v>17.42300888575959</v>
       </c>
       <c r="O6">
-        <v>13.12905997837447</v>
+        <v>19.80562751009105</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.27808956668348</v>
+        <v>8.131086773628869</v>
       </c>
       <c r="C7">
-        <v>7.947956088160564</v>
+        <v>5.399589005614864</v>
       </c>
       <c r="D7">
-        <v>6.363886677413791</v>
+        <v>5.776837031832853</v>
       </c>
       <c r="E7">
-        <v>26.13752685465396</v>
+        <v>14.96689178545909</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.10082927763449</v>
+        <v>24.93433224274304</v>
       </c>
       <c r="H7">
-        <v>8.183888453234493</v>
+        <v>13.33696981463068</v>
       </c>
       <c r="I7">
-        <v>11.9780338196069</v>
+        <v>18.92548069281999</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.47091734472776</v>
+        <v>8.017178540582609</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.48620757667455</v>
+        <v>17.40562013401573</v>
       </c>
       <c r="O7">
-        <v>13.1532062812586</v>
+        <v>19.78761232927212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.40845134897737</v>
+        <v>8.586945780794888</v>
       </c>
       <c r="C8">
-        <v>8.588933506585848</v>
+        <v>5.706711937203442</v>
       </c>
       <c r="D8">
-        <v>7.013729929369728</v>
+        <v>5.93071802524158</v>
       </c>
       <c r="E8">
-        <v>28.93139847888647</v>
+        <v>16.18786669062461</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.91504824229261</v>
+        <v>24.95414774158237</v>
       </c>
       <c r="H8">
-        <v>8.153659027921341</v>
+        <v>13.28354757293729</v>
       </c>
       <c r="I8">
-        <v>11.84792583657732</v>
+        <v>18.82367204449866</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.40510226533785</v>
+        <v>8.342599826360436</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.24157443350001</v>
+        <v>17.33241528991127</v>
       </c>
       <c r="O8">
-        <v>13.28743882879915</v>
+        <v>19.71839807359844</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.38985912322524</v>
+        <v>9.42344404410616</v>
       </c>
       <c r="C9">
-        <v>9.729287087697026</v>
+        <v>6.25671567658154</v>
       </c>
       <c r="D9">
-        <v>8.15275462817403</v>
+        <v>6.234023935146902</v>
       </c>
       <c r="E9">
-        <v>33.91059875633292</v>
+        <v>18.46251569797813</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.6437990697669</v>
+        <v>25.06552985374351</v>
       </c>
       <c r="H9">
-        <v>8.144425027074865</v>
+        <v>13.19676164188146</v>
       </c>
       <c r="I9">
-        <v>11.68306720947772</v>
+        <v>18.65427962558202</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.05974744563196</v>
+        <v>9.15348828553679</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.77974040235356</v>
+        <v>17.2014558862951</v>
       </c>
       <c r="O9">
-        <v>13.65674826037038</v>
+        <v>19.61985028312212</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.70362870649647</v>
+        <v>9.997004379490994</v>
       </c>
       <c r="C10">
-        <v>10.49558514258572</v>
+        <v>6.626823079600021</v>
       </c>
       <c r="D10">
-        <v>8.909215568824251</v>
+        <v>6.455163977654201</v>
       </c>
       <c r="E10">
-        <v>37.28400402960744</v>
+        <v>20.10046457254134</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.98711919590975</v>
+        <v>25.19137517881335</v>
       </c>
       <c r="H10">
-        <v>8.172036092004102</v>
+        <v>13.14399058153259</v>
       </c>
       <c r="I10">
-        <v>11.62585638924033</v>
+        <v>18.54836699964218</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.16642290687785</v>
+        <v>9.698677715222638</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.44958537080488</v>
+        <v>17.11283632084295</v>
       </c>
       <c r="O10">
-        <v>13.99817451223656</v>
+        <v>19.57030136615639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27093499737883</v>
+        <v>10.24802187577084</v>
       </c>
       <c r="C11">
-        <v>10.82878484368652</v>
+        <v>6.787474359084514</v>
       </c>
       <c r="D11">
-        <v>9.236373702298483</v>
+        <v>6.554873343825821</v>
       </c>
       <c r="E11">
-        <v>38.76162689762423</v>
+        <v>20.80331738959663</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.61282116981678</v>
+        <v>25.25808474121488</v>
       </c>
       <c r="H11">
-        <v>8.192930159736987</v>
+        <v>13.12237690059124</v>
       </c>
       <c r="I11">
-        <v>11.61574675493848</v>
+        <v>18.50423137172772</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.64628486620349</v>
+        <v>9.935154802710043</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.30095466935427</v>
+        <v>17.07415296065296</v>
       </c>
       <c r="O11">
-        <v>14.16975457763169</v>
+        <v>19.55275768468358</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.48144286140732</v>
+        <v>10.3415839486686</v>
       </c>
       <c r="C12">
-        <v>10.95276639246379</v>
+        <v>6.847177014331014</v>
       </c>
       <c r="D12">
-        <v>9.357861797675952</v>
+        <v>6.592462205890083</v>
       </c>
       <c r="E12">
-        <v>39.31341611731877</v>
+        <v>21.0634285100052</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.85177784898429</v>
+        <v>25.28469410457518</v>
       </c>
       <c r="H12">
-        <v>8.202113702966619</v>
+        <v>13.11453689758375</v>
       </c>
       <c r="I12">
-        <v>11.61438374996886</v>
+        <v>18.48810177683492</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.82462582800655</v>
+        <v>10.02301175003369</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.24485829706489</v>
+        <v>17.05973769439581</v>
       </c>
       <c r="O12">
-        <v>14.23714388011849</v>
+        <v>19.54683518969851</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.43629754658435</v>
+        <v>10.32150107554754</v>
       </c>
       <c r="C13">
-        <v>10.92616192284738</v>
+        <v>6.83436968059045</v>
       </c>
       <c r="D13">
-        <v>9.331803240989437</v>
+        <v>6.584374914126327</v>
       </c>
       <c r="E13">
-        <v>39.1949159103811</v>
+        <v>21.00767721580928</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.80022561062658</v>
+        <v>25.27890358361127</v>
       </c>
       <c r="H13">
-        <v>8.200078135243961</v>
+        <v>13.11621004503963</v>
       </c>
       <c r="I13">
-        <v>11.61456477723954</v>
+        <v>18.49154958545633</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7863665222539</v>
+        <v>10.00416590169445</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.25693197175362</v>
+        <v>17.06283192242942</v>
       </c>
       <c r="O13">
-        <v>14.22252175706246</v>
+        <v>19.54807860636315</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.28833988939103</v>
+        <v>10.25574956429901</v>
       </c>
       <c r="C14">
-        <v>10.83902870828619</v>
+        <v>6.792408950218955</v>
       </c>
       <c r="D14">
-        <v>9.246416461280264</v>
+        <v>6.55796941460934</v>
       </c>
       <c r="E14">
-        <v>38.80717568872201</v>
+        <v>20.82483783200944</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.63244024759088</v>
+        <v>25.26024697759408</v>
       </c>
       <c r="H14">
-        <v>8.193659790019382</v>
+        <v>13.12172498834681</v>
       </c>
       <c r="I14">
-        <v>11.61558417867166</v>
+        <v>18.50289267232268</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.66102453914856</v>
+        <v>9.942416924718609</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.29633606704026</v>
+        <v>17.07296233910916</v>
       </c>
       <c r="O14">
-        <v>14.17524989267613</v>
+        <v>19.55225597631393</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.19715051916399</v>
+        <v>10.21527856711738</v>
       </c>
       <c r="C15">
-        <v>10.78537210618387</v>
+        <v>6.766558675828972</v>
       </c>
       <c r="D15">
-        <v>9.193803290435596</v>
+        <v>6.541772105697325</v>
       </c>
       <c r="E15">
-        <v>38.56867741618799</v>
+        <v>20.71205729123444</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.52992746835545</v>
+        <v>25.24899438280861</v>
       </c>
       <c r="H15">
-        <v>8.189896140131308</v>
+        <v>13.12514794991481</v>
       </c>
       <c r="I15">
-        <v>11.61653498956119</v>
+        <v>18.50991670343474</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.58381044810373</v>
+        <v>9.904372673643321</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.32049538678969</v>
+        <v>17.0791978588536</v>
       </c>
       <c r="O15">
-        <v>14.14661133184831</v>
+        <v>19.55490868791685</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.6659470642675</v>
+        <v>9.980394450358965</v>
       </c>
       <c r="C16">
-        <v>10.47350148909974</v>
+        <v>6.616166852551499</v>
       </c>
       <c r="D16">
-        <v>8.887497052062892</v>
+        <v>6.448626286727871</v>
       </c>
       <c r="E16">
-        <v>37.18632807582385</v>
+        <v>20.05368394371553</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.9465143724273</v>
+        <v>25.18720492230727</v>
       </c>
       <c r="H16">
-        <v>8.17084451638674</v>
+        <v>13.14545127773775</v>
       </c>
       <c r="I16">
-        <v>11.62685230493088</v>
+        <v>18.55133292494926</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.13458973611123</v>
+        <v>9.682988332590604</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.45932698296931</v>
+        <v>17.11539707507957</v>
       </c>
       <c r="O16">
-        <v>13.9872952723512</v>
+        <v>19.57154864269688</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.3323304721956</v>
+        <v>9.833712827389302</v>
       </c>
       <c r="C17">
-        <v>10.27824764963701</v>
+        <v>6.521913057345463</v>
       </c>
       <c r="D17">
-        <v>8.695271632411856</v>
+        <v>6.39122677429404</v>
       </c>
       <c r="E17">
-        <v>36.32401053770008</v>
+        <v>19.63899319419209</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.59228465091407</v>
+        <v>25.15171429078761</v>
       </c>
       <c r="H17">
-        <v>8.16134286464807</v>
+        <v>13.15851985945462</v>
       </c>
       <c r="I17">
-        <v>11.63738180988006</v>
+        <v>18.57777776906357</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.85297943920333</v>
+        <v>9.544196884115618</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.54486928992864</v>
+        <v>17.13802083037933</v>
       </c>
       <c r="O17">
-        <v>13.89378140829081</v>
+        <v>19.58303824239499</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.13758485212248</v>
+        <v>9.748417256931031</v>
       </c>
       <c r="C18">
-        <v>10.16449221381127</v>
+        <v>6.466975973257634</v>
       </c>
       <c r="D18">
-        <v>8.583109876823553</v>
+        <v>6.358130793200916</v>
       </c>
       <c r="E18">
-        <v>35.82263886416003</v>
+        <v>19.39649454757093</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.38992070593347</v>
+        <v>25.13219254385127</v>
       </c>
       <c r="H18">
-        <v>8.156657701719803</v>
+        <v>13.16626168425881</v>
       </c>
       <c r="I18">
-        <v>11.64492522146324</v>
+        <v>18.59336871612144</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.68878443103528</v>
+        <v>9.463283852148056</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.59422006021409</v>
+        <v>17.15118691775646</v>
       </c>
       <c r="O18">
-        <v>13.84152118322311</v>
+        <v>19.59011691095038</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.0711552198217</v>
+        <v>9.719380511771435</v>
       </c>
       <c r="C19">
-        <v>10.12572697953513</v>
+        <v>6.448251515428809</v>
       </c>
       <c r="D19">
-        <v>8.544858076532172</v>
+        <v>6.346912392647604</v>
       </c>
       <c r="E19">
-        <v>35.65194479905765</v>
+        <v>19.31370418970688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.32164373225527</v>
+        <v>25.12573628090768</v>
       </c>
       <c r="H19">
-        <v>8.155203141912198</v>
+        <v>13.16892157819671</v>
       </c>
       <c r="I19">
-        <v>11.64772942290964</v>
+        <v>18.59871284554769</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.63280914154501</v>
+        <v>9.435703048076027</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.61095607590604</v>
+        <v>17.15567112732322</v>
       </c>
       <c r="O19">
-        <v>13.82408654030323</v>
+        <v>19.5925942965654</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.36814004492441</v>
+        <v>9.849423935245349</v>
       </c>
       <c r="C20">
-        <v>10.29918276986832</v>
+        <v>6.532021730403306</v>
       </c>
       <c r="D20">
-        <v>8.715899545703481</v>
+        <v>6.39734577039536</v>
       </c>
       <c r="E20">
-        <v>36.41636047672646</v>
+        <v>19.68354935756973</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.6298509271785</v>
+        <v>25.15540014332482</v>
       </c>
       <c r="H20">
-        <v>8.162273087443941</v>
+        <v>13.15710538257473</v>
       </c>
       <c r="I20">
-        <v>11.63610575478912</v>
+        <v>18.57492326792913</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.88318702746194</v>
+        <v>9.559083906493452</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.53574799427413</v>
+        <v>17.13559661433789</v>
       </c>
       <c r="O20">
-        <v>13.90357756621359</v>
+        <v>19.58176647692808</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.33191547257488</v>
+        <v>10.27510339545276</v>
       </c>
       <c r="C21">
-        <v>10.86468119094529</v>
+        <v>6.804764737580812</v>
       </c>
       <c r="D21">
-        <v>9.271561430886804</v>
+        <v>6.565730250250466</v>
       </c>
       <c r="E21">
-        <v>38.92127115549832</v>
+        <v>20.87870596368125</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.68166867964651</v>
+        <v>25.2656904074719</v>
       </c>
       <c r="H21">
-        <v>8.195509917397082</v>
+        <v>13.1200957576699</v>
       </c>
       <c r="I21">
-        <v>11.615216411253</v>
+        <v>18.49954507772075</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.69793185840915</v>
+        <v>9.960600250123068</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.28475737077106</v>
+        <v>17.06998046787023</v>
       </c>
       <c r="O21">
-        <v>14.18906862657336</v>
+        <v>19.55100939807952</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.9366501428911</v>
+        <v>10.54458292162685</v>
       </c>
       <c r="C22">
-        <v>11.22149409918793</v>
+        <v>6.976408710194169</v>
       </c>
       <c r="D22">
-        <v>9.620751509802416</v>
+        <v>6.674777323039194</v>
       </c>
       <c r="E22">
-        <v>40.51341095349567</v>
+        <v>21.62459592327487</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.38082967509928</v>
+        <v>25.34562036413751</v>
       </c>
       <c r="H22">
-        <v>8.224677983563366</v>
+        <v>13.09791687200166</v>
       </c>
       <c r="I22">
-        <v>11.61601972526134</v>
+        <v>18.45368373203003</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.21077276953795</v>
+        <v>10.21314156191944</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.1217899416996</v>
+        <v>17.02845575755783</v>
       </c>
       <c r="O22">
-        <v>14.38976778983547</v>
+        <v>19.53511083574695</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.61617701948248</v>
+        <v>10.40157553188672</v>
       </c>
       <c r="C23">
-        <v>11.03221642807454</v>
+        <v>6.885410632785498</v>
       </c>
       <c r="D23">
-        <v>9.435646738624053</v>
+        <v>6.616681497845119</v>
       </c>
       <c r="E23">
-        <v>39.66761448992347</v>
+        <v>21.22971174842338</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.00662109891613</v>
+        <v>25.30224692880466</v>
       </c>
       <c r="H23">
-        <v>8.208404566124553</v>
+        <v>13.10957012643675</v>
       </c>
       <c r="I23">
-        <v>11.61420840514467</v>
+        <v>18.47784878688185</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.93884903505385</v>
+        <v>10.07926853224856</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.20868402762606</v>
+        <v>17.05049427662536</v>
       </c>
       <c r="O23">
-        <v>14.28133467883995</v>
+        <v>19.54321089861266</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.35195971330415</v>
+        <v>9.842323947962369</v>
       </c>
       <c r="C24">
-        <v>10.28972267992422</v>
+        <v>6.527453931525259</v>
       </c>
       <c r="D24">
-        <v>8.706578804695035</v>
+        <v>6.394579668870202</v>
       </c>
       <c r="E24">
-        <v>36.37462658750154</v>
+        <v>19.66341825048681</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.61286319673744</v>
+        <v>25.15373102011243</v>
       </c>
       <c r="H24">
-        <v>8.161850117605113</v>
+        <v>13.15774415575333</v>
       </c>
       <c r="I24">
-        <v>11.63667803202521</v>
+        <v>18.57621258110526</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.86953732171548</v>
+        <v>9.552356969627521</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.53987119551959</v>
+        <v>17.1366921058098</v>
       </c>
       <c r="O24">
-        <v>13.8991440502363</v>
+        <v>19.58233996841506</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87890140809005</v>
+        <v>9.203970759141992</v>
       </c>
       <c r="C25">
-        <v>9.433359977302779</v>
+        <v>6.113760550023247</v>
       </c>
       <c r="D25">
-        <v>7.858890783796224</v>
+        <v>6.15208527461316</v>
       </c>
       <c r="E25">
-        <v>32.61513083911339</v>
+        <v>17.82163492391986</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.16276855985499</v>
+        <v>25.02764401372961</v>
       </c>
       <c r="H25">
-        <v>8.141169738627308</v>
+        <v>13.21831177179093</v>
       </c>
       <c r="I25">
-        <v>11.71710985140231</v>
+        <v>18.69685596433876</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.63124812564254</v>
+        <v>8.942747372565419</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.90293686640983</v>
+        <v>17.23554399989822</v>
       </c>
       <c r="O25">
-        <v>13.54489832033832</v>
+        <v>19.64250917396901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.706829043602321</v>
+        <v>13.69876984718806</v>
       </c>
       <c r="C2">
-        <v>5.786482077707481</v>
+        <v>8.754756964130614</v>
       </c>
       <c r="D2">
-        <v>5.972618362059277</v>
+        <v>7.180571327019185</v>
       </c>
       <c r="E2">
-        <v>16.50508050714844</v>
+        <v>29.65390876008261</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.96442592711288</v>
+        <v>21.14488054647115</v>
       </c>
       <c r="H2">
-        <v>13.27028801887965</v>
+        <v>8.148714246357388</v>
       </c>
       <c r="I2">
-        <v>18.79813087760017</v>
+        <v>11.81846868332732</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.459906954226811</v>
+        <v>12.64628815837592</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.31343588228232</v>
+        <v>11.17656267270737</v>
       </c>
       <c r="O2">
-        <v>19.70215311645135</v>
+        <v>13.33077109398628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.35495519919469</v>
+        <v>12.83890139719282</v>
       </c>
       <c r="C3">
-        <v>5.551226904570221</v>
+        <v>8.265004915580214</v>
       </c>
       <c r="D3">
-        <v>5.851287856702156</v>
+        <v>6.686371319151134</v>
       </c>
       <c r="E3">
-        <v>15.56961735666164</v>
+        <v>27.52005420453634</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.94012192324781</v>
+        <v>20.4885410447578</v>
       </c>
       <c r="H3">
-        <v>13.31010655170421</v>
+        <v>8.166748590003372</v>
       </c>
       <c r="I3">
-        <v>18.87449877332737</v>
+        <v>11.91051729684463</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.176206086240951</v>
+        <v>11.93337855727584</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.36943826834594</v>
+        <v>11.36651436060418</v>
       </c>
       <c r="O3">
-        <v>19.7520826941456</v>
+        <v>13.21299367647728</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.132324813206095</v>
+        <v>12.28122495675485</v>
       </c>
       <c r="C4">
-        <v>5.4004323931131</v>
+        <v>7.949723093546175</v>
       </c>
       <c r="D4">
-        <v>5.777242512512783</v>
+        <v>6.365690247987079</v>
       </c>
       <c r="E4">
-        <v>14.97024299731406</v>
+        <v>26.14523814471079</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.9343423236375</v>
+        <v>20.10290644409917</v>
       </c>
       <c r="H4">
-        <v>13.33681765142158</v>
+        <v>8.183781191863309</v>
       </c>
       <c r="I4">
-        <v>18.92519307239155</v>
+        <v>11.97764081423426</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.018053614467387</v>
+        <v>11.4734968919304</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.40541859906455</v>
+        <v>11.48554749763897</v>
       </c>
       <c r="O4">
-        <v>19.78740714480531</v>
+        <v>13.15350363044237</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.040084310019422</v>
+        <v>12.04649659202915</v>
       </c>
       <c r="C5">
-        <v>5.337437643761288</v>
+        <v>7.817617265096628</v>
       </c>
       <c r="D5">
-        <v>5.747229564753606</v>
+        <v>6.230642960559011</v>
       </c>
       <c r="E5">
-        <v>14.71997686137593</v>
+        <v>25.56846666407372</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.93428411401652</v>
+        <v>19.95024529632014</v>
       </c>
       <c r="H5">
-        <v>13.34827098492219</v>
+        <v>8.192160573175727</v>
       </c>
       <c r="I5">
-        <v>18.94680641705234</v>
+        <v>12.00753100564176</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.952994473427749</v>
+        <v>11.28057681902681</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.4204831056166</v>
+        <v>11.53468261901145</v>
       </c>
       <c r="O5">
-        <v>19.80297234845015</v>
+        <v>13.13238190100818</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.024680565922436</v>
+        <v>12.00706917856283</v>
       </c>
       <c r="C6">
-        <v>5.326885752302799</v>
+        <v>7.795463602991479</v>
       </c>
       <c r="D6">
-        <v>5.742257067926505</v>
+        <v>6.210889294280938</v>
       </c>
       <c r="E6">
-        <v>14.67806591014319</v>
+        <v>25.47168853720054</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.9344130723452</v>
+        <v>19.925170423171</v>
       </c>
       <c r="H6">
-        <v>13.35020711259264</v>
+        <v>8.193637112241912</v>
       </c>
       <c r="I6">
-        <v>18.95045293094222</v>
+        <v>12.01264378350806</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.942157605227822</v>
+        <v>11.2482115377728</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.42300888575959</v>
+        <v>11.54288008944076</v>
       </c>
       <c r="O6">
-        <v>19.80562751009105</v>
+        <v>13.1290599783745</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.131086773628869</v>
+        <v>12.27808956668344</v>
       </c>
       <c r="C7">
-        <v>5.399589005614864</v>
+        <v>7.947956088160367</v>
       </c>
       <c r="D7">
-        <v>5.776837031832853</v>
+        <v>6.36388667741379</v>
       </c>
       <c r="E7">
-        <v>14.96689178545909</v>
+        <v>26.13752685465401</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.93433224274304</v>
+        <v>20.10082927763479</v>
       </c>
       <c r="H7">
-        <v>13.33696981463068</v>
+        <v>8.183888453234553</v>
       </c>
       <c r="I7">
-        <v>18.92548069281999</v>
+        <v>11.97803381960705</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.017178540582609</v>
+        <v>11.4709173447277</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.40562013401573</v>
+        <v>11.48620757667465</v>
       </c>
       <c r="O7">
-        <v>19.78761232927212</v>
+        <v>13.1532062812588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.586945780794888</v>
+        <v>13.4084513489773</v>
       </c>
       <c r="C8">
-        <v>5.706711937203442</v>
+        <v>8.588933506585898</v>
       </c>
       <c r="D8">
-        <v>5.93071802524158</v>
+        <v>7.013729929369693</v>
       </c>
       <c r="E8">
-        <v>16.18786669062461</v>
+        <v>28.93139847888644</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.95414774158237</v>
+        <v>20.91504824229275</v>
       </c>
       <c r="H8">
-        <v>13.28354757293729</v>
+        <v>8.153659027921398</v>
       </c>
       <c r="I8">
-        <v>18.82367204449866</v>
+        <v>11.84792583657746</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.342599826360436</v>
+        <v>12.40510226533782</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.33241528991127</v>
+        <v>11.2415744335</v>
       </c>
       <c r="O8">
-        <v>19.71839807359844</v>
+        <v>13.28743882879922</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.42344404410616</v>
+        <v>15.38985912322521</v>
       </c>
       <c r="C9">
-        <v>6.25671567658154</v>
+        <v>9.729287087696983</v>
       </c>
       <c r="D9">
-        <v>6.234023935146902</v>
+        <v>8.152754628174028</v>
       </c>
       <c r="E9">
-        <v>18.46251569797813</v>
+        <v>33.91059875633304</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.06552985374351</v>
+        <v>22.64379906976701</v>
       </c>
       <c r="H9">
-        <v>13.19676164188146</v>
+        <v>8.144425027074972</v>
       </c>
       <c r="I9">
-        <v>18.65427962558202</v>
+        <v>11.68306720947786</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.15348828553679</v>
+        <v>14.05974744563195</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.2014558862951</v>
+        <v>10.77974040235359</v>
       </c>
       <c r="O9">
-        <v>19.61985028312212</v>
+        <v>13.65674826037045</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.997004379490994</v>
+        <v>16.70362870649649</v>
       </c>
       <c r="C10">
-        <v>6.626823079600021</v>
+        <v>10.49558514258579</v>
       </c>
       <c r="D10">
-        <v>6.455163977654201</v>
+        <v>8.90921556882425</v>
       </c>
       <c r="E10">
-        <v>20.10046457254134</v>
+        <v>37.28400402960743</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.19137517881335</v>
+        <v>23.98711919590983</v>
       </c>
       <c r="H10">
-        <v>13.14399058153259</v>
+        <v>8.172036092004102</v>
       </c>
       <c r="I10">
-        <v>18.54836699964218</v>
+        <v>11.62585638924039</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.698677715222638</v>
+        <v>15.16642290687789</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.11283632084295</v>
+        <v>10.44958537080491</v>
       </c>
       <c r="O10">
-        <v>19.57030136615639</v>
+        <v>13.99817451223659</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.24802187577084</v>
+        <v>17.27093499737884</v>
       </c>
       <c r="C11">
-        <v>6.787474359084514</v>
+        <v>10.8287848436865</v>
       </c>
       <c r="D11">
-        <v>6.554873343825821</v>
+        <v>9.236373702298504</v>
       </c>
       <c r="E11">
-        <v>20.80331738959663</v>
+        <v>38.76162689762427</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.25808474121488</v>
+        <v>24.61282116981678</v>
       </c>
       <c r="H11">
-        <v>13.12237690059124</v>
+        <v>8.192930159736941</v>
       </c>
       <c r="I11">
-        <v>18.50423137172772</v>
+        <v>11.61574675493847</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.935154802710043</v>
+        <v>15.64628486620352</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.07415296065296</v>
+        <v>10.30095466935427</v>
       </c>
       <c r="O11">
-        <v>19.55275768468358</v>
+        <v>14.16975457763169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.3415839486686</v>
+        <v>17.48144286140724</v>
       </c>
       <c r="C12">
-        <v>6.847177014331014</v>
+        <v>10.95276639246396</v>
       </c>
       <c r="D12">
-        <v>6.592462205890083</v>
+        <v>9.357861797675996</v>
       </c>
       <c r="E12">
-        <v>21.0634285100052</v>
+        <v>39.31341611731878</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.28469410457518</v>
+        <v>24.85177784898422</v>
       </c>
       <c r="H12">
-        <v>13.11453689758375</v>
+        <v>8.202113702966615</v>
       </c>
       <c r="I12">
-        <v>18.48810177683492</v>
+        <v>11.61438374996891</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.02301175003369</v>
+        <v>15.82462582800655</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.05973769439581</v>
+        <v>10.24485829706489</v>
       </c>
       <c r="O12">
-        <v>19.54683518969851</v>
+        <v>14.23714388011847</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.32150107554754</v>
+        <v>17.43629754658438</v>
       </c>
       <c r="C13">
-        <v>6.83436968059045</v>
+        <v>10.92616192284713</v>
       </c>
       <c r="D13">
-        <v>6.584374914126327</v>
+        <v>9.331803240989506</v>
       </c>
       <c r="E13">
-        <v>21.00767721580928</v>
+        <v>39.19491591038101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.27890358361127</v>
+        <v>24.80022561062668</v>
       </c>
       <c r="H13">
-        <v>13.11621004503963</v>
+        <v>8.200078135244107</v>
       </c>
       <c r="I13">
-        <v>18.49154958545633</v>
+        <v>11.61456477723961</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.00416590169445</v>
+        <v>15.78636652225385</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.06283192242942</v>
+        <v>10.25693197175366</v>
       </c>
       <c r="O13">
-        <v>19.54807860636315</v>
+        <v>14.22252175706257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.25574956429901</v>
+        <v>17.28833988939106</v>
       </c>
       <c r="C14">
-        <v>6.792408950218955</v>
+        <v>10.83902870828619</v>
       </c>
       <c r="D14">
-        <v>6.55796941460934</v>
+        <v>9.246416461280276</v>
       </c>
       <c r="E14">
-        <v>20.82483783200944</v>
+        <v>38.80717568872191</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.26024697759408</v>
+        <v>24.63244024759089</v>
       </c>
       <c r="H14">
-        <v>13.12172498834681</v>
+        <v>8.193659790019375</v>
       </c>
       <c r="I14">
-        <v>18.50289267232268</v>
+        <v>11.61558417867171</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.942416924718609</v>
+        <v>15.66102453914858</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.07296233910916</v>
+        <v>10.29633606704033</v>
       </c>
       <c r="O14">
-        <v>19.55225597631393</v>
+        <v>14.17524989267616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.21527856711738</v>
+        <v>17.19715051916405</v>
       </c>
       <c r="C15">
-        <v>6.766558675828972</v>
+        <v>10.78537210618387</v>
       </c>
       <c r="D15">
-        <v>6.541772105697325</v>
+        <v>9.193803290435644</v>
       </c>
       <c r="E15">
-        <v>20.71205729123444</v>
+        <v>38.56867741618801</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.24899438280861</v>
+        <v>24.52992746835551</v>
       </c>
       <c r="H15">
-        <v>13.12514794991481</v>
+        <v>8.189896140131191</v>
       </c>
       <c r="I15">
-        <v>18.50991670343474</v>
+        <v>11.61653498956111</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.904372673643321</v>
+        <v>15.58381044810374</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.0791978588536</v>
+        <v>10.32049538678958</v>
       </c>
       <c r="O15">
-        <v>19.55490868791685</v>
+        <v>14.14661133184828</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.980394450358965</v>
+        <v>16.66594706426745</v>
       </c>
       <c r="C16">
-        <v>6.616166852551499</v>
+        <v>10.47350148909961</v>
       </c>
       <c r="D16">
-        <v>6.448626286727871</v>
+        <v>8.887497052062935</v>
       </c>
       <c r="E16">
-        <v>20.05368394371553</v>
+        <v>37.18632807582385</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.18720492230727</v>
+        <v>23.94651437242729</v>
       </c>
       <c r="H16">
-        <v>13.14545127773775</v>
+        <v>8.170844516386753</v>
       </c>
       <c r="I16">
-        <v>18.55133292494926</v>
+        <v>11.62685230493092</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.682988332590604</v>
+        <v>15.13458973611118</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.11539707507957</v>
+        <v>10.45932698296934</v>
       </c>
       <c r="O16">
-        <v>19.57154864269688</v>
+        <v>13.98729527235124</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.833712827389302</v>
+        <v>16.33233047219562</v>
       </c>
       <c r="C17">
-        <v>6.521913057345463</v>
+        <v>10.27824764963698</v>
       </c>
       <c r="D17">
-        <v>6.39122677429404</v>
+        <v>8.695271632411874</v>
       </c>
       <c r="E17">
-        <v>19.63899319419209</v>
+        <v>36.32401053770015</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.15171429078761</v>
+        <v>23.59228465091413</v>
       </c>
       <c r="H17">
-        <v>13.15851985945462</v>
+        <v>8.161342864648082</v>
       </c>
       <c r="I17">
-        <v>18.57777776906357</v>
+        <v>11.63738180988008</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.544196884115618</v>
+        <v>14.85297943920334</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.13802083037933</v>
+        <v>10.54486928992864</v>
       </c>
       <c r="O17">
-        <v>19.58303824239499</v>
+        <v>13.89378140829083</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.748417256931031</v>
+        <v>16.13758485212245</v>
       </c>
       <c r="C18">
-        <v>6.466975973257634</v>
+        <v>10.16449221381131</v>
       </c>
       <c r="D18">
-        <v>6.358130793200916</v>
+        <v>8.583109876823537</v>
       </c>
       <c r="E18">
-        <v>19.39649454757093</v>
+        <v>35.82263886415994</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.13219254385127</v>
+        <v>23.38992070593366</v>
       </c>
       <c r="H18">
-        <v>13.16626168425881</v>
+        <v>8.156657701719864</v>
       </c>
       <c r="I18">
-        <v>18.59336871612144</v>
+        <v>11.64492522146337</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.463283852148056</v>
+        <v>14.68878443103524</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.15118691775646</v>
+        <v>10.59422006021415</v>
       </c>
       <c r="O18">
-        <v>19.59011691095038</v>
+        <v>13.84152118322324</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.719380511771435</v>
+        <v>16.07115521982162</v>
       </c>
       <c r="C19">
-        <v>6.448251515428809</v>
+        <v>10.12572697953514</v>
       </c>
       <c r="D19">
-        <v>6.346912392647604</v>
+        <v>8.54485807653216</v>
       </c>
       <c r="E19">
-        <v>19.31370418970688</v>
+        <v>35.65194479905757</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.12573628090768</v>
+        <v>23.32164373225541</v>
       </c>
       <c r="H19">
-        <v>13.16892157819671</v>
+        <v>8.155203141912285</v>
       </c>
       <c r="I19">
-        <v>18.59871284554769</v>
+        <v>11.6477294229098</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.435703048076027</v>
+        <v>14.63280914154497</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.15567112732322</v>
+        <v>10.61095607590614</v>
       </c>
       <c r="O19">
-        <v>19.5925942965654</v>
+        <v>13.82408654030337</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.849423935245349</v>
+        <v>16.36814004492441</v>
       </c>
       <c r="C20">
-        <v>6.532021730403306</v>
+        <v>10.29918276986825</v>
       </c>
       <c r="D20">
-        <v>6.39734577039536</v>
+        <v>8.715899545703438</v>
       </c>
       <c r="E20">
-        <v>19.68354935756973</v>
+        <v>36.41636047672655</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.15540014332482</v>
+        <v>23.62985092717856</v>
       </c>
       <c r="H20">
-        <v>13.15710538257473</v>
+        <v>8.162273087443946</v>
       </c>
       <c r="I20">
-        <v>18.57492326792913</v>
+        <v>11.63610575478915</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.559083906493452</v>
+        <v>14.8831870274619</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.13559661433789</v>
+        <v>10.5357479942742</v>
       </c>
       <c r="O20">
-        <v>19.58176647692808</v>
+        <v>13.90357756621367</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.27510339545276</v>
+        <v>17.33191547257476</v>
       </c>
       <c r="C21">
-        <v>6.804764737580812</v>
+        <v>10.86468119094536</v>
       </c>
       <c r="D21">
-        <v>6.565730250250466</v>
+        <v>9.27156143088679</v>
       </c>
       <c r="E21">
-        <v>20.87870596368125</v>
+        <v>38.92127115549835</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.2656904074719</v>
+        <v>24.68166867964657</v>
       </c>
       <c r="H21">
-        <v>13.1200957576699</v>
+        <v>8.195509917397082</v>
       </c>
       <c r="I21">
-        <v>18.49954507772075</v>
+        <v>11.61521641125314</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.960600250123068</v>
+        <v>15.69793185840908</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.06998046787023</v>
+        <v>10.28475737077106</v>
       </c>
       <c r="O21">
-        <v>19.55100939807952</v>
+        <v>14.1890686265734</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.54458292162685</v>
+        <v>17.93665014289111</v>
       </c>
       <c r="C22">
-        <v>6.976408710194169</v>
+        <v>11.2214940991881</v>
       </c>
       <c r="D22">
-        <v>6.674777323039194</v>
+        <v>9.620751509802377</v>
       </c>
       <c r="E22">
-        <v>21.62459592327487</v>
+        <v>40.51341095349559</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.34562036413751</v>
+        <v>25.38082967509927</v>
       </c>
       <c r="H22">
-        <v>13.09791687200166</v>
+        <v>8.224677983563305</v>
       </c>
       <c r="I22">
-        <v>18.45368373203003</v>
+        <v>11.61601972526131</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.21314156191944</v>
+        <v>16.21077276953804</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.02845575755783</v>
+        <v>10.12178994169957</v>
       </c>
       <c r="O22">
-        <v>19.53511083574695</v>
+        <v>14.38976778983541</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.40157553188672</v>
+        <v>17.61617701948245</v>
       </c>
       <c r="C23">
-        <v>6.885410632785498</v>
+        <v>11.03221642807451</v>
       </c>
       <c r="D23">
-        <v>6.616681497845119</v>
+        <v>9.435646738623932</v>
       </c>
       <c r="E23">
-        <v>21.22971174842338</v>
+        <v>39.66761448992349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.30224692880466</v>
+        <v>25.00662109891614</v>
       </c>
       <c r="H23">
-        <v>13.10957012643675</v>
+        <v>8.208404566124598</v>
       </c>
       <c r="I23">
-        <v>18.47784878688185</v>
+        <v>11.61420840514476</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.07926853224856</v>
+        <v>15.93884903505383</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.05049427662536</v>
+        <v>10.2086840276261</v>
       </c>
       <c r="O23">
-        <v>19.54321089861266</v>
+        <v>14.28133467884</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.842323947962369</v>
+        <v>16.35195971330423</v>
       </c>
       <c r="C24">
-        <v>6.527453931525259</v>
+        <v>10.28972267992421</v>
       </c>
       <c r="D24">
-        <v>6.394579668870202</v>
+        <v>8.706578804695059</v>
       </c>
       <c r="E24">
-        <v>19.66341825048681</v>
+        <v>36.37462658750159</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.15373102011243</v>
+        <v>23.61286319673739</v>
       </c>
       <c r="H24">
-        <v>13.15774415575333</v>
+        <v>8.161850117605072</v>
       </c>
       <c r="I24">
-        <v>18.57621258110526</v>
+        <v>11.63667803202511</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.552356969627521</v>
+        <v>14.86953732171549</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.1366921058098</v>
+        <v>10.53987119551952</v>
       </c>
       <c r="O24">
-        <v>19.58233996841506</v>
+        <v>13.89914405023624</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.203970759141992</v>
+        <v>14.87890140809007</v>
       </c>
       <c r="C25">
-        <v>6.113760550023247</v>
+        <v>9.43335997730285</v>
       </c>
       <c r="D25">
-        <v>6.15208527461316</v>
+        <v>7.858890783796267</v>
       </c>
       <c r="E25">
-        <v>17.82163492391986</v>
+        <v>32.61513083911336</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.02764401372961</v>
+        <v>22.16276855985502</v>
       </c>
       <c r="H25">
-        <v>13.21831177179093</v>
+        <v>8.141169738627262</v>
       </c>
       <c r="I25">
-        <v>18.69685596433876</v>
+        <v>11.71710985140232</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.942747372565419</v>
+        <v>13.63124812564256</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.23554399989822</v>
+        <v>10.90293686640983</v>
       </c>
       <c r="O25">
-        <v>19.64250917396901</v>
+        <v>13.54489832033831</v>
       </c>
     </row>
   </sheetData>
